--- a/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas02.xlsx
+++ b/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas02.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desenvolvimento-de-sistemas\FPOO\Java\aula2_verde\workspace\Vendas\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB94BB72-3752-4B00-99C3-BEB646106F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{48D8C55C-F493-495F-AA12-B1D32DF03C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{039A5B36-6AB8-4BF6-A09B-5AC76252367D}"/>
   </bookViews>
@@ -16,17 +11,10 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,7 +94,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +103,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,7 +179,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -193,9 +188,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -203,10 +199,7 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -230,7 +223,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96763CBF-5AF9-45A0-A140-123356593320}" name="Tabela1" displayName="Tabela1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96763CBF-5AF9-45A0-A140-123356593320}" name="Tabela1" displayName="Tabela1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:I11" xr:uid="{96763CBF-5AF9-45A0-A140-123356593320}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{475B3226-96B8-4667-8876-6B47B066A31D}" name="Produto"/>
@@ -238,17 +231,17 @@
     <tableColumn id="3" xr3:uid="{143EF437-5A09-44F3-97D6-E5661E7F1499}" name="QtdVendida"/>
     <tableColumn id="4" xr3:uid="{4AC4A473-E8CE-46E3-B16C-519E57E163D7}" name="PrecoCompra"/>
     <tableColumn id="5" xr3:uid="{C254C00A-6FCF-464C-8A96-0C822500F191}" name="PrecoVenda"/>
-    <tableColumn id="6" xr3:uid="{E0AF0723-C1D7-4D49-9689-05537BD254D2}" name="Investimento" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E0AF0723-C1D7-4D49-9689-05537BD254D2}" name="Investimento" dataDxfId="1">
       <calculatedColumnFormula>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{95C5C773-3293-4492-8D74-711C7576C1C8}" name="Faturamento" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{95C5C773-3293-4492-8D74-711C7576C1C8}" name="Faturamento" dataDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{131A4CA1-0E48-40B2-A94E-566014DD1256}" name="Lucro R$" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7BCC213E-8D89-4E64-A57E-F1FFE0F3B229}" name="Lucro %" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{7BCC213E-8D89-4E64-A57E-F1FFE0F3B229}" name="Lucro %" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -554,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BAB4C7-8B22-45EA-8CF6-829C853818FF}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,21 +609,21 @@
       <c r="E2" s="1">
         <v>15.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>111.6</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>108.5</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>-3.0999999999999943</v>
       </c>
-      <c r="I2" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>-3.0999999999999943</v>
+      <c r="I2" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>-2.8571428571428518E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,21 +642,21 @@
       <c r="E3" s="1">
         <v>25.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>137.69999999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>153</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>15.300000000000011</v>
       </c>
-      <c r="I3" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>15.300000000000011</v>
+      <c r="I3" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.10000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -682,21 +675,21 @@
       <c r="E4" s="1">
         <v>35.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>71</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>106.5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>35.5</v>
       </c>
-      <c r="I4" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>35.5</v>
+      <c r="I4" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,21 +708,21 @@
       <c r="E5" s="1">
         <v>18</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>63.9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>90</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>26.1</v>
       </c>
-      <c r="I5" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>26.1</v>
+      <c r="I5" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,21 +741,21 @@
       <c r="E6" s="1">
         <v>8.99</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>247.00000000000003</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>314.65000000000003</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>67.650000000000006</v>
       </c>
-      <c r="I6" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>67.650000000000006</v>
+      <c r="I6" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.21500079453360876</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,21 +774,21 @@
       <c r="E7" s="1">
         <v>8.99</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>220.5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>251.72</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>31.22</v>
       </c>
-      <c r="I7" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>31.22</v>
+      <c r="I7" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.12402669632925473</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,21 +807,21 @@
       <c r="E8" s="1">
         <v>8.99</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>251.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>287.68</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>36.180000000000007</v>
       </c>
-      <c r="I8" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>36.180000000000007</v>
+      <c r="I8" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.12576473859844273</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,21 +840,21 @@
       <c r="E9" s="1">
         <v>350.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>806.2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>2103</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>1296.8</v>
       </c>
-      <c r="I9" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>1296.8</v>
+      <c r="I9" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.61664289110794102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -880,21 +873,21 @@
       <c r="E10" s="1">
         <v>255.9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>511.8</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>767.7</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>255.90000000000003</v>
       </c>
-      <c r="I10" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>255.90000000000003</v>
+      <c r="I10" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -913,53 +906,52 @@
       <c r="E11" s="1">
         <v>435.5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>Tabela1[[#This Row],[PrecoCompra]]*Tabela1[[#This Row],[QtdComprada]]</f>
         <v>958.1</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f>Tabela1[[#This Row],[PrecoVenda]]*Tabela1[[#This Row],[QtdVendida]]</f>
         <v>1742</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
         <v>783.9</v>
       </c>
-      <c r="I11" s="10">
-        <f>Tabela1[[#This Row],[Faturamento]]-Tabela1[[#This Row],[Investimento]]</f>
-        <v>783.9</v>
+      <c r="I11" s="9">
+        <f>Tabela1[[#This Row],[Lucro R$]]/Tabela1[[#This Row],[Faturamento]]</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f>SUM(F2:F11)</f>
         <v>3379.2999999999997</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>SUM(G2:G11)</f>
         <v>5924.75</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>